--- a/mcmaster_excel/Stainless_Steel_Ultra-Wide_Flanged_Button_Head_Screws.xlsx
+++ b/mcmaster_excel/Stainless_Steel_Ultra-Wide_Flanged_Button_Head_Screws.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,206 +434,128 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg.</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Dia.</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Thick.</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDia.</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Head Ht.</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Style</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>TensileStrength, psi</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr"/>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Each</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>3/16"</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.516"</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.109"</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0.190"</t>
-        </is>
-      </c>
+          <t>Flange</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.180"</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Hex</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>1/16"</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>80,000</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>95599A111</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>$3.60</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>4-40</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
+          <t>Drive</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>Lg.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Threading</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.516"</t>
+          <t>Dia.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.109"</t>
+          <t>Thick.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.190"</t>
+          <t>HeadDia.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.180"</t>
+          <t>Head Ht.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hex</t>
+          <t>Style</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1/16"</t>
+          <t>Size</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>80,000</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>95599A112</t>
-        </is>
-      </c>
+          <t>TensileStrength, psi</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>4-40</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
+          <t>Each</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -678,12 +600,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>95599A113</t>
+          <t>95599A111</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>$3.60</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -700,7 +622,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -745,12 +667,12 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>95599A114</t>
+          <t>95599A112</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -767,7 +689,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -812,12 +734,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>95599A115</t>
+          <t>95599A113</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>3.94</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -834,7 +756,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -844,7 +766,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.563"</t>
+          <t>0.516"</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -854,12 +776,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.200"</t>
+          <t>0.190"</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.190"</t>
+          <t>0.180"</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -869,7 +791,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>5/64"</t>
+          <t>1/16"</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -879,17 +801,17 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>95599A116</t>
+          <t>95599A114</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>6-32</t>
+          <t>4-40</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -901,7 +823,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -911,7 +833,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.563"</t>
+          <t>0.516"</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -921,12 +843,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.200"</t>
+          <t>0.190"</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.190"</t>
+          <t>0.180"</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -936,7 +858,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>5/64"</t>
+          <t>1/16"</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -946,17 +868,17 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>95599A117</t>
+          <t>95599A115</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>3.94</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>6-32</t>
+          <t>4-40</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -968,7 +890,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1013,12 +935,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>95599A118</t>
+          <t>95599A116</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>3.93</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1035,7 +957,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1080,12 +1002,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>95599A119</t>
+          <t>95599A117</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>4.81</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1102,7 +1024,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1147,12 +1069,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>95599A120</t>
+          <t>95599A118</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>5.02</t>
+          <t>3.93</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1169,7 +1091,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1189,7 +1111,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.250"</t>
+          <t>0.200"</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1214,17 +1136,17 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>95599A121</t>
+          <t>95599A119</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>4.81</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>8-32</t>
+          <t>6-32</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1236,7 +1158,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1246,7 +1168,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.656"</t>
+          <t>0.563"</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1256,7 +1178,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.250"</t>
+          <t>0.200"</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1271,7 +1193,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>3/32"</t>
+          <t>5/64"</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1281,17 +1203,17 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>95599A122</t>
+          <t>95599A120</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>3.93</t>
+          <t>5.02</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>8-32</t>
+          <t>6-32</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -1303,7 +1225,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1313,7 +1235,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.656"</t>
+          <t>0.563"</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1338,7 +1260,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>3/32"</t>
+          <t>5/64"</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1348,12 +1270,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>95599A123</t>
+          <t>95599A121</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1370,7 +1292,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1415,12 +1337,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>95599A124</t>
+          <t>95599A122</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>3.93</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1437,7 +1359,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1482,12 +1404,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>95599A125</t>
+          <t>95599A123</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>4.07</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1504,7 +1426,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1514,7 +1436,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.750"</t>
+          <t>0.656"</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1529,7 +1451,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0.210"</t>
+          <t>0.190"</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1539,7 +1461,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>1/8"</t>
+          <t>3/32"</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1549,17 +1471,17 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>95599A126</t>
+          <t>95599A124</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>4.16</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>10-24</t>
+          <t>8-32</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -1571,7 +1493,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1581,7 +1503,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.750"</t>
+          <t>0.656"</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1591,12 +1513,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.300"</t>
+          <t>0.250"</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0.210"</t>
+          <t>0.190"</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1606,7 +1528,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>1/8"</t>
+          <t>3/32"</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1616,17 +1538,17 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>95599A127</t>
+          <t>95599A125</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>4.19</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>10-24</t>
+          <t>8-32</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -1638,7 +1560,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1658,7 +1580,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.300"</t>
+          <t>0.250"</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1683,12 +1605,12 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>95599A128</t>
+          <t>95599A126</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>4.16</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1705,7 +1627,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1750,12 +1672,12 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>95599A129</t>
+          <t>95599A127</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>4.53</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1772,7 +1694,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1817,12 +1739,12 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>95599A130</t>
+          <t>95599A128</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>4.62</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1839,7 +1761,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1884,17 +1806,17 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>95599A131</t>
+          <t>95599A129</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>5.09</t>
+          <t>4.53</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>10-32</t>
+          <t>10-24</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -1906,7 +1828,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1951,17 +1873,17 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>95599A132</t>
+          <t>95599A130</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>5.21</t>
+          <t>4.62</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>10-32</t>
+          <t>10-24</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -1973,7 +1895,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2018,12 +1940,12 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>95599A133</t>
+          <t>95599A131</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>4.63</t>
+          <t>5.09</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2040,7 +1962,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2085,12 +2007,12 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>95599A134</t>
+          <t>95599A132</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>5.21</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2107,7 +2029,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2152,7 +2074,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>95599A135</t>
+          <t>95599A133</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2174,7 +2096,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2184,7 +2106,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0.813"</t>
+          <t>0.750"</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2194,7 +2116,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.380"</t>
+          <t>0.300"</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2209,7 +2131,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>5/32"</t>
+          <t>1/8"</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2219,17 +2141,17 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>95599A136</t>
+          <t>95599A134</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
+          <t>10-32</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -2241,7 +2163,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2251,7 +2173,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0.813"</t>
+          <t>0.750"</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2261,7 +2183,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.380"</t>
+          <t>0.300"</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2276,7 +2198,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>5/32"</t>
+          <t>1/8"</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2286,17 +2208,17 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>95599A137</t>
+          <t>95599A135</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>6.74</t>
+          <t>4.63</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
+          <t>10-32</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -2308,7 +2230,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2353,12 +2275,12 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>95599A138</t>
+          <t>95599A136</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>7.38</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2375,7 +2297,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2420,12 +2342,12 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>95599A139</t>
+          <t>95599A137</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>7.38</t>
+          <t>6.74</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2442,65 +2364,199 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>3/4"</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0.813"</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.109"</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0.380"</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.210"</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Hex</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>5/32"</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>80,000</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>95599A138</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>1/4"-20</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>1"</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>0.813"</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.109"</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0.380"</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.210"</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Hex</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>5/32"</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>80,000</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>95599A139</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>1/4"-20</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
           <t>1 1/2"</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
         <is>
           <t>0.813"</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.109"</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.109"</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
         <is>
           <t>0.380"</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>0.210"</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>Hex</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Hex</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
         <is>
           <t>5/32"</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>80,000</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>80,000</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
         <is>
           <t>95599A140</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>10.59</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="L33" t="inlineStr">
         <is>
           <t>1/4"-20</t>
         </is>
       </c>
-      <c r="M31" t="inlineStr">
+      <c r="M33" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
         </is>
